--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>907045.2190357331</v>
+        <v>910364.7653086378</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4868583.063503974</v>
+        <v>4868583.063503975</v>
       </c>
     </row>
     <row r="11">
@@ -704,25 +704,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
         <v>205.5178444382804</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,73 +893,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>119.8469440170073</v>
       </c>
       <c r="T6" t="n">
-        <v>188.6068038629609</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1133,67 +1133,67 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>46.54968785507688</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.39970040110641</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1367,73 +1367,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>107.2644082870342</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>86.21539897205307</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>159.0801288120801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2644082870342</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>43.24488262422804</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="19">
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2169,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>26.8425929514904</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,17 +2324,17 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>85.83512306370304</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,76 +2473,76 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>31.40545287583943</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>63.91655766579878</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,37 +2731,37 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,11 +2789,11 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>99.22041616487689</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>161.5817155408742</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>55.57566235103583</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,61 +3278,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3436,19 +3436,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11.19305615617957</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>20.32831784487794</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>18.95603491516094</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3673,40 +3673,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>186.3732331246961</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>19.20171008547518</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6895931158046016</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>12.91814281012253</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4340,10 +4340,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4352,22 +4352,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W2" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="W2" t="n">
-        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
         <v>224.0352098159517</v>
@@ -4410,16 +4410,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
         <v>752.6768192397923</v>
@@ -4431,25 +4431,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4483,10 +4483,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4568,16 +4568,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4598,13 +4598,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
         <v>614.4775954922324</v>
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>463.3441176391537</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>463.3441176391537</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>314.4097079779024</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4647,49 +4647,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="T6" t="n">
-        <v>631.5594546592217</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="U6" t="n">
-        <v>631.5594546592217</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="V6" t="n">
-        <v>631.5594546592217</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="W6" t="n">
-        <v>631.5594546592217</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X6" t="n">
-        <v>631.5594546592217</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y6" t="n">
-        <v>631.5594546592217</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C9" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>64.21544693014803</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4884,13 +4884,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
         <v>366.5706756325438</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>780.2534985600848</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>606.8361540107537</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5042,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5124,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>518.7152536647734</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>311.1214714038841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>103.5276891429948</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>103.5276891429948</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>614.4775954922324</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>614.4775954922324</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
         <v>506.1297083336119</v>
@@ -5358,16 +5358,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5388,19 +5388,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.4883050441255</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>645.7885818937584</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>402.3398052496583</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>194.4883050441255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>194.4883050441255</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5695,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E23" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6020,7 +6020,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
         <v>720.6083788665362</v>
@@ -6029,10 +6029,10 @@
         <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>411.7553005975742</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>252.5178455921187</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>105.9832876190037</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="25">
@@ -6190,7 +6190,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>414.6641751762832</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C27" t="n">
-        <v>414.6641751762832</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D27" t="n">
-        <v>414.6641751762832</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E27" t="n">
-        <v>255.4267201708277</v>
+        <v>84.59745522340125</v>
       </c>
       <c r="F27" t="n">
-        <v>255.4267201708277</v>
+        <v>84.59745522340125</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>84.59745522340125</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>84.59745522340125</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>790.6398109613051</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y27" t="n">
-        <v>582.8795121963512</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6482,19 +6482,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U29" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
         <v>506.1786963984129</v>
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>557.3945247848451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>557.3945247848451</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>557.3945247848451</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6643,13 +6643,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y32" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>907.9201228328222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>907.9201228328222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>705.7335281915883</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6877,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>186.3493554720934</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>186.3493554720934</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>186.3493554720934</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>186.3493554720934</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>39.81479749897832</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>39.81479749897832</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>944.9096454953221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>944.9096454953221</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>944.9096454953221</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9096454953221</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>709.7575372635794</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>709.7575372635794</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>501.9060370580465</v>
+        <v>354.5646924921614</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9060370580465</v>
+        <v>354.5646924921614</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E41" t="n">
-        <v>396.792197863116</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F41" t="n">
-        <v>189.1984156022267</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7418,43 +7418,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7500,13 +7500,13 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7515,25 +7515,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7658,10 +7658,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305.0177250813958</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C45" t="n">
-        <v>130.5646958002688</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
         <v>17.19556020784815</v>
@@ -7731,46 +7731,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>142.2888212580996</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V45" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X45" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.7142837842288</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>269.2526134200356</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,10 +8225,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8304,16 +8304,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8541,7 +8541,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>279.489774794024</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,13 +10431,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,16 +11148,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,13 +11306,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>265.6729592778915</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11391,10 +11391,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>180.7200942177732</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22866,16 +22866,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>51.83622708683056</v>
       </c>
       <c r="T6" t="n">
-        <v>11.55792483186073</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23075,13 +23075,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>42.84694499633819</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>58.75813375153672</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23160,10 +23160,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,10 +23267,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>394.1424372895921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,22 +23343,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>50.38067216836671</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>119.5575862314244</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>247.7959169296313</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23574,13 +23574,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.38067216836671</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23628,7 +23628,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,19 +23808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23868,16 +23868,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>189.5557045251972</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24020,10 +24020,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>31.13252716541155</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24057,13 +24057,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>118.2266194418935</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>51.5083940995076</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24333,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>101.6909038562026</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,22 +24488,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9380642873712</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>25.48007518561629</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>44.19126966260328</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.5821718016073</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>162.9789056020061</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,10 +25117,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>287.0492336280195</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>132.7629680684941</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25324,19 +25324,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>371.540785507301</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25439,13 +25439,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>91.90712639161852</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,19 +25515,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>81.20179923748219</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25631,19 +25631,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>244.2733193484424</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>122.6534551423523</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,19 +25755,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>39.56814895627872</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25868,7 +25868,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>335.4813315352078</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.8435905340627</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>134.5269227545162</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410169.8687708225</v>
+        <v>410169.8687708226</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410169.8687708225</v>
+        <v>410169.8687708228</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432017.7485814646</v>
+        <v>432017.7485814645</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432017.7485814646</v>
+        <v>432017.7485814645</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432017.7485814645</v>
+        <v>432017.7485814646</v>
       </c>
     </row>
     <row r="15">
@@ -26353,7 +26353,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="P2" t="n">
-        <v>141981.8776514385</v>
+        <v>141981.8776514384</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="C4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="D4" t="n">
-        <v>541.4529778195923</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="E4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="F4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
       <c r="P4" t="n">
-        <v>541.4529778195924</v>
+        <v>153.8115589332268</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26443.5831500815</v>
+        <v>26831.22456896789</v>
       </c>
       <c r="C6" t="n">
-        <v>95317.33973177135</v>
+        <v>95704.98115065772</v>
       </c>
       <c r="D6" t="n">
-        <v>95317.33973177132</v>
+        <v>95704.98115065772</v>
       </c>
       <c r="E6" t="n">
-        <v>128944.9397317713</v>
+        <v>129332.5811506578</v>
       </c>
       <c r="F6" t="n">
-        <v>128944.9397317714</v>
+        <v>129332.5811506578</v>
       </c>
       <c r="G6" t="n">
-        <v>124573.7878701232</v>
+        <v>124982.3610425664</v>
       </c>
       <c r="H6" t="n">
-        <v>134302.8308442903</v>
+        <v>134711.4040167335</v>
       </c>
       <c r="I6" t="n">
-        <v>134302.8308442903</v>
+        <v>134711.4040167335</v>
       </c>
       <c r="J6" t="n">
-        <v>80530.31995408083</v>
+        <v>80938.89312652413</v>
       </c>
       <c r="K6" t="n">
-        <v>134302.8308442903</v>
+        <v>134711.4040167335</v>
       </c>
       <c r="L6" t="n">
-        <v>134302.8308442902</v>
+        <v>134711.4040167335</v>
       </c>
       <c r="M6" t="n">
-        <v>134302.8308442902</v>
+        <v>134711.4040167335</v>
       </c>
       <c r="N6" t="n">
-        <v>134302.8308442902</v>
+        <v>134711.4040167335</v>
       </c>
       <c r="O6" t="n">
-        <v>128944.9397317714</v>
+        <v>129332.5811506578</v>
       </c>
       <c r="P6" t="n">
-        <v>128944.9397317714</v>
+        <v>129332.5811506577</v>
       </c>
     </row>
   </sheetData>
@@ -34708,13 +34708,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34945,10 +34945,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35024,16 +35024,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,19 +35492,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>148.1480627106907</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,13 +38026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38111,10 +38111,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>910364.7653086378</v>
+        <v>911148.9112466666</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U2" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>120.0500723064956</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +898,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>84.00145925270526</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1212,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>107.2644082870342</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.39970040110641</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,67 +1369,67 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="W11" t="n">
         <v>205.5178444382804</v>
@@ -1455,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
+        <v>196.2369034892017</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,10 +1627,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>46.54968785507681</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>83.68079957157174</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>103.0088977318019</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>26.8425929514904</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>47.50776251200644</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>147.2580314867804</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>85.83512306370304</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>63.91655766579878</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2792,11 +2794,11 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.487814385594598</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>99.22041616487689</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,70 +3034,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3108,28 +3110,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>51.20308350636262</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>37.18582309281555</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3226,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>4.580549094716531</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>85.99898141827431</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3591,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>99.13012673870388</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>20.32831784487794</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3755,58 +3757,58 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>102.6193464791835</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,16 +3872,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4056,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>12.91814281012253</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4150,46 +4152,46 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4337,40 +4339,40 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
         <v>16.44142755506243</v>
@@ -4410,19 +4412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4431,25 +4433,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V3" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4607,10 +4609,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>599.8443290969091</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>599.8443290969091</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>392.2505468360198</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>392.2505468360198</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>184.6567645751305</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X6" t="n">
-        <v>184.6567645751305</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="7">
@@ -4832,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="Y8" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.6485894889752</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4887,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>780.2534985600848</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>606.8361540107537</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>606.8361540107537</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>606.8361540107537</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>606.8361540107537</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>399.2423717498644</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>399.2423717498644</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.6485894889752</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5075,16 +5077,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D12" t="n">
-        <v>614.4775954922324</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H12" t="n">
         <v>107.4951893506917</v>
@@ -5121,16 +5123,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>315.088971611581</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5223,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5266,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5394,13 +5396,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>648.4405950311615</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C18" t="n">
-        <v>473.9875657500345</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="D18" t="n">
-        <v>325.0531560887832</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="E18" t="n">
-        <v>165.8157010833278</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5613359363032</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5613359363032</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5613359363032</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y18" t="n">
-        <v>816.6559320512295</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="19">
@@ -5707,13 +5709,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C20" t="n">
-        <v>223.6192102101089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6192102101089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E20" t="n">
-        <v>223.6192102101089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6192102101089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298.4948343740486</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C21" t="n">
-        <v>298.4948343740486</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="D21" t="n">
-        <v>298.4948343740486</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="E21" t="n">
-        <v>298.4948343740486</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>298.4948343740486</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>298.4948343740486</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5944,7 +5946,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
         <v>829.5248650203655</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>560.6897102588255</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C24" t="n">
-        <v>560.6897102588255</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>411.7553005975742</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>252.5178455921187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>105.9832876190037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X24" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y24" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="25">
@@ -6184,10 +6186,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
         <v>829.5248650203655</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6262,16 @@
         <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>84.59745522340125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>84.59745522340125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>84.59745522340125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>84.59745522340125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6314,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>243.8349102288568</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>243.8349102288568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>955.4836056261972</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>782.0662610768661</v>
       </c>
       <c r="T30" t="n">
-        <v>690.4171683705204</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="U30" t="n">
-        <v>462.1935501069094</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="V30" t="n">
-        <v>227.0414418751666</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>336.430889791532</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.668582052591</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>926.4957180431458</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>926.4957180431458</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>926.4957180431458</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>718.6442178376129</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y33" t="n">
-        <v>510.883919072659</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C36" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D36" t="n">
-        <v>23.90796037760316</v>
+        <v>641.7054013000538</v>
       </c>
       <c r="E36" t="n">
-        <v>23.90796037760316</v>
+        <v>482.4679462945983</v>
       </c>
       <c r="F36" t="n">
-        <v>23.90796037760316</v>
+        <v>335.9333883214833</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>197.2025629040988</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>23.90796037760316</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E38" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="C38" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="D38" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>186.3493554720934</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="C39" t="n">
-        <v>186.3493554720934</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="D39" t="n">
-        <v>186.3493554720934</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="E39" t="n">
-        <v>186.3493554720934</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="F39" t="n">
-        <v>39.81479749897832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>39.81479749897832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7287,16 +7289,16 @@
         <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X39" t="n">
-        <v>354.5646924921614</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="Y39" t="n">
-        <v>354.5646924921614</v>
+        <v>119.4125842604187</v>
       </c>
     </row>
     <row r="40">
@@ -7354,19 +7356,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7454,7 +7456,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.27987404077794</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="C42" t="n">
-        <v>31.27987404077794</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D42" t="n">
-        <v>31.27987404077794</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E42" t="n">
-        <v>31.27987404077794</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F42" t="n">
-        <v>31.27987404077794</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7520,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>238.8736563016672</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>238.8736563016672</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W42" t="n">
-        <v>238.8736563016672</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X42" t="n">
-        <v>238.8736563016672</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.27987404077794</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7599,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>30.24418930898202</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7755,22 +7757,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>412.2910008509983</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>412.2910008509983</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>412.2910008509983</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7837,19 +7839,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>269.2526134200356</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>328.5558052311782</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>258.4602915813506</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11391,10 +11393,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22598,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U2" t="n">
-        <v>80.31623474114394</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V3" t="n">
-        <v>112.7505148429297</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22784,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>200.6602726518442</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>73.64362120269568</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>51.83622708683056</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22923,10 +22925,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23072,19 +23074,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23100,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>40.18065727760452</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>58.75813375153672</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23160,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23273,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23315,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>143.7231242791326</v>
@@ -23343,16 +23345,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>50.38067216836671</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>9.536081714275781</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,10 +23515,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>205.1452953058428</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>96.87776287405225</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>5.715833279843338</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>118.2266194418935</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>64.72768172449003</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24184,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>25.45046750153531</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>51.5083940995076</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24500,13 +24502,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>25.48007518561629</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.1006142106236</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24734,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>91.67001976704853</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,7 +24922,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24968,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,28 +24998,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>106.4419969490383</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>162.9789056020061</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25114,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25199,16 +25201,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25219,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>132.7629680684941</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>26.23646281822215</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25479,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>45.93908565468</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>91.90712639161852</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25527,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25643,7 +25645,7 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>63.91383717068379</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>122.6534551423523</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25758,16 +25760,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25837,10 +25839,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25944,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>134.5269227545162</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410169.8687708226</v>
+        <v>410169.8687708225</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410169.8687708225</v>
+        <v>410169.8687708226</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410169.8687708228</v>
+        <v>410169.8687708226</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410169.8687708226</v>
+        <v>410169.8687708225</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432017.7485814645</v>
+        <v>432017.7485814646</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432017.7485814645</v>
+        <v>432017.7485814646</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432017.7485814645</v>
+        <v>432017.7485814646</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432017.7485814645</v>
+        <v>432017.7485814646</v>
       </c>
     </row>
     <row r="13">
@@ -26335,7 +26337,7 @@
         <v>149544.6052781992</v>
       </c>
       <c r="J2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="K2" t="n">
         <v>149544.6052781992</v>
@@ -26525,7 +26527,7 @@
         <v>95704.98115065772</v>
       </c>
       <c r="D6" t="n">
-        <v>95704.98115065772</v>
+        <v>95704.9811506577</v>
       </c>
       <c r="E6" t="n">
         <v>129332.5811506578</v>
@@ -26534,16 +26536,16 @@
         <v>129332.5811506578</v>
       </c>
       <c r="G6" t="n">
-        <v>124982.3610425664</v>
+        <v>124982.3610425665</v>
       </c>
       <c r="H6" t="n">
         <v>134711.4040167335</v>
       </c>
       <c r="I6" t="n">
-        <v>134711.4040167335</v>
+        <v>134711.4040167336</v>
       </c>
       <c r="J6" t="n">
-        <v>80938.89312652413</v>
+        <v>80938.89312652405</v>
       </c>
       <c r="K6" t="n">
         <v>134711.4040167335</v>
@@ -26558,7 +26560,7 @@
         <v>134711.4040167335</v>
       </c>
       <c r="O6" t="n">
-        <v>129332.5811506578</v>
+        <v>129332.5811506577</v>
       </c>
       <c r="P6" t="n">
         <v>129332.5811506577</v>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>197.2140931478448</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>127.1185794980173</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38111,10 +38113,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>911148.9112466666</v>
+        <v>806916.4129832232</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="U2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>32.82846049034081</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,73 +898,73 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>84.00145925270526</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1034,13 +1034,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>80.11569190233641</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,61 +1381,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X12" t="n">
-        <v>196.2369034892017</v>
-      </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="I14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>46.54968785507681</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>83.68079957157174</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>57.44545255886318</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2092,58 +2092,58 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>47.50776251200644</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>156.0287596262406</v>
       </c>
     </row>
     <row r="22">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>147.2580314867804</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>130.7406573088296</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>208.6252873733553</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.487814385594598</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="31">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>51.20308350636262</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="34">
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>85.99898141827431</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>216.2863297033078</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3429,49 +3429,49 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3511,56 +3511,56 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>99.13012673870388</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102.6193464791835</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4118,13 +4118,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4339,13 +4339,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4360,22 +4360,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="U2" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="V2" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="W2" t="n">
-        <v>16.44142755506243</v>
-      </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>166.1299698690994</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>788.9113166517673</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>788.9113166517673</v>
       </c>
       <c r="U3" t="n">
-        <v>639.2227743377304</v>
+        <v>788.9113166517673</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>581.317534390878</v>
       </c>
       <c r="W3" t="n">
-        <v>431.628992076841</v>
+        <v>581.317534390878</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>373.7237521299887</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>166.1299698690994</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4573,7 +4573,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4603,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y5" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4655,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4682,16 +4682,16 @@
         <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>513.308066045118</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="W6" t="n">
-        <v>513.308066045118</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="X6" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y6" t="n">
-        <v>305.7142837842288</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4764,13 +4764,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4807,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="V8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="V8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="W8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4889,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4916,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5001,13 +5001,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5044,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5074,19 +5074,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W12" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>315.088971611581</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5287,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5302,28 +5302,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,7 +5366,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
         <v>366.5706756325438</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="W15" t="n">
-        <v>775.0514910308218</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>567.4577087699325</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>359.8639265090432</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5463,25 +5463,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>425.5489231905453</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>251.0958939094183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>104.5613359363032</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>104.5613359363032</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>104.5613359363032</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>425.5489231905453</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>425.5489231905453</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X18" t="n">
-        <v>425.5489231905453</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y18" t="n">
-        <v>425.5489231905453</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="19">
@@ -5697,16 +5697,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>481.7099827492369</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="C21" t="n">
-        <v>307.2569534681098</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D21" t="n">
-        <v>158.3225438068586</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>158.3225438068586</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>158.3225438068586</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>158.3225438068586</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>481.7099827492369</v>
+        <v>806.4523478073629</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="E23" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F23" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="E23" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="F23" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
         <v>31.35113235729608</v>
@@ -6022,19 +6022,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W24" t="n">
-        <v>327.2640844659515</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X24" t="n">
-        <v>327.2640844659515</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y24" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y26" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>525.1009237385856</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>525.1009237385856</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G29" t="n">
         <v>31.35113235729608</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W29" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,7 +6551,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>955.4836056261972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>782.0662610768661</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>579.8796664356321</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>579.8796664356321</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>579.8796664356321</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>336.430889791532</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>336.430889791532</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>336.430889791532</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,28 +6721,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>560.6897102588255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>560.6897102588255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>560.6897102588255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>790.6398109613051</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C36" t="n">
-        <v>790.6398109613051</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D36" t="n">
-        <v>641.7054013000538</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E36" t="n">
-        <v>482.4679462945983</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>335.9333883214833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>197.2025629040988</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X36" t="n">
-        <v>790.6398109613051</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.6398109613051</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>119.4125842604187</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C39" t="n">
-        <v>119.4125842604187</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D39" t="n">
-        <v>119.4125842604187</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="E39" t="n">
-        <v>119.4125842604187</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>108.2982427099313</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>119.4125842604187</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>119.4125842604187</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7420,40 +7420,40 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y41" t="n">
         <v>639.2227743377304</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7499,16 +7499,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W42" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>441.0602509429012</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G43" t="n">
         <v>16.44142755506243</v>
@@ -7599,22 +7599,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7766,10 +7766,10 @@
         <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="X45" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="X45" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
         <v>16.44142755506243</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8221,10 +8221,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,10 +9014,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,10 +11147,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11384,19 +11384,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>212.7243290316435</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22600,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>138.854710613497</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>200.6602726518442</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>73.64362120269568</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,10 +22880,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22922,13 +22922,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>125.6572933011411</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T8" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>40.18065727760452</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,13 +23156,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23314,16 +23314,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>9.536081714275781</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>19.30946265260823</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I14" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>205.1452953058428</v>
+        <v>237.0049211400612</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23734,28 +23734,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23791,13 +23791,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>96.87776287405225</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>5.715833279843338</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>194.2495306020564</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23980,19 +23980,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>64.72768172449003</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>49.65393615106379</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24262,10 +24262,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>137.40686139585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>25.45046750153531</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24335,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>74.94203846847481</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24530,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>16.1006142106236</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>24.17529977606995</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>91.67001976704853</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>106.4419969490383</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="34">
@@ -25116,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>26.23646281822215</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>9.655052377667005</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>375.044882499874</v>
       </c>
     </row>
     <row r="39">
@@ -25475,19 +25475,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>45.93908565468</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>24.1085156327751</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385885</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63.91383717068379</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25724,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25772,10 +25772,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25921,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>220.1946534677489</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26006,13 +26006,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>24.75286782224003</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410169.8687708225</v>
+        <v>410169.8687708226</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410169.8687708226</v>
+        <v>410169.8687708225</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410169.8687708226</v>
+        <v>410169.8687708227</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410169.8687708225</v>
+        <v>410169.8687708226</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432017.7485814645</v>
+        <v>432017.7485814646</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432017.7485814646</v>
+        <v>432017.7485814645</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432017.7485814646</v>
+        <v>432017.7485814645</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432017.7485814646</v>
+        <v>432017.7485814645</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432017.7485814646</v>
+        <v>432017.7485814645</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410169.8687708226</v>
+        <v>410169.8687708228</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410169.8687708226</v>
+        <v>410169.8687708228</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>141981.8776514384</v>
       </c>
       <c r="D2" t="n">
-        <v>141981.8776514384</v>
+        <v>141981.8776514383</v>
       </c>
       <c r="E2" t="n">
         <v>141981.8776514384</v>
@@ -26328,16 +26328,16 @@
         <v>141981.8776514384</v>
       </c>
       <c r="G2" t="n">
+        <v>149544.6052781991</v>
+      </c>
+      <c r="H2" t="n">
+        <v>149544.6052781991</v>
+      </c>
+      <c r="I2" t="n">
+        <v>149544.6052781991</v>
+      </c>
+      <c r="J2" t="n">
         <v>149544.6052781992</v>
-      </c>
-      <c r="H2" t="n">
-        <v>149544.6052781992</v>
-      </c>
-      <c r="I2" t="n">
-        <v>149544.6052781992</v>
-      </c>
-      <c r="J2" t="n">
-        <v>149544.6052781991</v>
       </c>
       <c r="K2" t="n">
         <v>149544.6052781992</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26831.22456896789</v>
+        <v>14193.06241410739</v>
       </c>
       <c r="C6" t="n">
-        <v>95704.98115065772</v>
+        <v>83066.81899579725</v>
       </c>
       <c r="D6" t="n">
-        <v>95704.9811506577</v>
+        <v>83066.81899579716</v>
       </c>
       <c r="E6" t="n">
-        <v>129332.5811506578</v>
+        <v>116694.4189957973</v>
       </c>
       <c r="F6" t="n">
-        <v>129332.5811506578</v>
+        <v>116694.4189957973</v>
       </c>
       <c r="G6" t="n">
-        <v>124982.3610425665</v>
+        <v>112764.3504225259</v>
       </c>
       <c r="H6" t="n">
-        <v>134711.4040167335</v>
+        <v>122493.393396693</v>
       </c>
       <c r="I6" t="n">
-        <v>134711.4040167336</v>
+        <v>122493.393396693</v>
       </c>
       <c r="J6" t="n">
-        <v>80938.89312652405</v>
+        <v>68720.88250648367</v>
       </c>
       <c r="K6" t="n">
-        <v>134711.4040167335</v>
+        <v>122493.3933966931</v>
       </c>
       <c r="L6" t="n">
-        <v>134711.4040167335</v>
+        <v>122493.3933966931</v>
       </c>
       <c r="M6" t="n">
-        <v>134711.4040167335</v>
+        <v>122493.3933966931</v>
       </c>
       <c r="N6" t="n">
-        <v>134711.4040167335</v>
+        <v>122493.3933966931</v>
       </c>
       <c r="O6" t="n">
-        <v>129332.5811506577</v>
+        <v>116694.4189957972</v>
       </c>
       <c r="P6" t="n">
-        <v>129332.5811506577</v>
+        <v>116694.4189957972</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35190,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37077,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37156,10 +37156,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N44" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N44" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38104,19 +38104,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
